--- a/all season cleaned data/allroundersetnames_ipl.xlsx
+++ b/all season cleaned data/allroundersetnames_ipl.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/Dataset_Final/cleaned all season/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/cricket-squad-selection/all season cleaned data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8CBFCE-FD0D-4A40-8ACE-33587ADF482F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2380A146-93E8-B247-95B4-D533E4AE2C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="166">
   <si>
     <t>Player</t>
   </si>
@@ -67,9 +67,6 @@
     <t>2013-2024</t>
   </si>
   <si>
-    <t>8*</t>
-  </si>
-  <si>
     <t>2008-2024</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>RA Jadeja</t>
   </si>
   <si>
-    <t>62*</t>
-  </si>
-  <si>
     <t>2017-2024</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
     <t>HV Patel</t>
   </si>
   <si>
-    <t>36*</t>
-  </si>
-  <si>
     <t>2013-2023</t>
   </si>
   <si>
@@ -118,21 +109,12 @@
     <t>2015-2024</t>
   </si>
   <si>
-    <t>17*</t>
-  </si>
-  <si>
     <t>AD Russell</t>
   </si>
   <si>
-    <t>88*</t>
-  </si>
-  <si>
     <t>SN Thakur</t>
   </si>
   <si>
-    <t>10*</t>
-  </si>
-  <si>
     <t>2016-2024</t>
   </si>
   <si>
@@ -142,18 +124,9 @@
     <t>2019-2024</t>
   </si>
   <si>
-    <t>13*</t>
-  </si>
-  <si>
     <t>KH Pandya</t>
   </si>
   <si>
-    <t>39*</t>
-  </si>
-  <si>
-    <t>25*</t>
-  </si>
-  <si>
     <t>2018-2024</t>
   </si>
   <si>
@@ -169,9 +142,6 @@
     <t>PJ Cummins</t>
   </si>
   <si>
-    <t>66*</t>
-  </si>
-  <si>
     <t>2020-2024</t>
   </si>
   <si>
@@ -184,33 +154,15 @@
     <t>SM Curran</t>
   </si>
   <si>
-    <t>63*</t>
-  </si>
-  <si>
     <t>JO Holder</t>
   </si>
   <si>
-    <t>47*</t>
-  </si>
-  <si>
     <t>2018-2023</t>
   </si>
   <si>
     <t>MP Stoinis</t>
   </si>
   <si>
-    <t>124*</t>
-  </si>
-  <si>
-    <t>20*</t>
-  </si>
-  <si>
-    <t>33*</t>
-  </si>
-  <si>
-    <t>15*</t>
-  </si>
-  <si>
     <t>MR Marsh</t>
   </si>
   <si>
@@ -241,18 +193,12 @@
     <t>2021-2024</t>
   </si>
   <si>
-    <t>1*</t>
-  </si>
-  <si>
     <t>BA Stokes</t>
   </si>
   <si>
     <t>2017-2023</t>
   </si>
   <si>
-    <t>107*</t>
-  </si>
-  <si>
     <t>R Dhawan</t>
   </si>
   <si>
@@ -265,30 +211,15 @@
     <t>2018-2021</t>
   </si>
   <si>
-    <t>100*</t>
-  </si>
-  <si>
-    <t>12*</t>
-  </si>
-  <si>
-    <t>48*</t>
-  </si>
-  <si>
     <t>K Gowtham</t>
   </si>
   <si>
     <t>Shahbaz Ahmed</t>
   </si>
   <si>
-    <t>59*</t>
-  </si>
-  <si>
     <t>M Jansen</t>
   </si>
   <si>
-    <t>2*</t>
-  </si>
-  <si>
     <t>2015-2022</t>
   </si>
   <si>
@@ -316,21 +247,12 @@
     <t>TK Curran</t>
   </si>
   <si>
-    <t>54*</t>
-  </si>
-  <si>
     <t>R Sai Kishore</t>
   </si>
   <si>
     <t>Abhishek Sharma</t>
   </si>
   <si>
-    <t>75*</t>
-  </si>
-  <si>
-    <t>95*</t>
-  </si>
-  <si>
     <t>LS Livingstone</t>
   </si>
   <si>
@@ -385,9 +307,6 @@
     <t>Arshad Khan</t>
   </si>
   <si>
-    <t>58*</t>
-  </si>
-  <si>
     <t>MG Bracewell</t>
   </si>
   <si>
@@ -412,9 +331,6 @@
     <t>DJ Willey</t>
   </si>
   <si>
-    <t>76*</t>
-  </si>
-  <si>
     <t>S Dube</t>
   </si>
   <si>
@@ -433,15 +349,9 @@
     <t>S Dhawan</t>
   </si>
   <si>
-    <t>106*</t>
-  </si>
-  <si>
     <t>R Parag</t>
   </si>
   <si>
-    <t>84*</t>
-  </si>
-  <si>
     <t>2018-2018</t>
   </si>
   <si>
@@ -466,9 +376,6 @@
     <t>Abdul Samad</t>
   </si>
   <si>
-    <t>37*</t>
-  </si>
-  <si>
     <t>A Badoni</t>
   </si>
   <si>
@@ -481,9 +388,6 @@
     <t>A Kamboj</t>
   </si>
   <si>
-    <t>68*</t>
-  </si>
-  <si>
     <t>SA Abbott</t>
   </si>
   <si>
@@ -505,9 +409,6 @@
     <t>Shashank Singh</t>
   </si>
   <si>
-    <t>9*</t>
-  </si>
-  <si>
     <t>Abdul Basith</t>
   </si>
   <si>
@@ -547,9 +448,6 @@
     <t>PN Mankad</t>
   </si>
   <si>
-    <t>64*</t>
-  </si>
-  <si>
     <t>KR Mayers</t>
   </si>
   <si>
@@ -578,9 +476,6 @@
   </si>
   <si>
     <t>JJ Roy</t>
-  </si>
-  <si>
-    <t>91*</t>
   </si>
   <si>
     <t>B Sai Sudharsan</t>
@@ -992,7 +887,7 @@
   <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N87" sqref="N87"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1048,10 +943,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2">
         <v>7</v>
@@ -1087,15 +982,15 @@
         <v>-35.99</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2">
         <v>8</v>
@@ -1103,8 +998,8 @@
       <c r="D3" s="2">
         <v>230</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>81</v>
+      <c r="E3" s="2">
+        <v>100</v>
       </c>
       <c r="F3" s="2">
         <v>32.85</v>
@@ -1131,15 +1026,15 @@
         <v>-17.14</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -1147,11 +1042,11 @@
       <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>88</v>
+      <c r="E4" s="2">
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -1172,18 +1067,18 @@
         <v>0</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -1204,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
@@ -1216,18 +1111,18 @@
         <v>0</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1245,13 +1140,13 @@
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -1260,18 +1155,18 @@
         <v>0</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -1289,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
@@ -1304,18 +1199,18 @@
         <v>0</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -1323,11 +1218,11 @@
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>73</v>
+      <c r="E8" s="2">
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -1336,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
@@ -1348,18 +1243,18 @@
         <v>0</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2">
         <v>7</v>
@@ -1367,8 +1262,8 @@
       <c r="D9" s="2">
         <v>140</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>23</v>
+      <c r="E9" s="2">
+        <v>62</v>
       </c>
       <c r="F9" s="2">
         <v>23.33</v>
@@ -1380,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
@@ -1392,18 +1287,18 @@
         <v>0</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2">
         <v>10</v>
@@ -1424,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
@@ -1436,18 +1331,18 @@
         <v>0</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2">
         <v>8</v>
@@ -1465,13 +1360,13 @@
         <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
@@ -1480,18 +1375,18 @@
         <v>0</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C12" s="2">
         <v>11</v>
@@ -1509,13 +1404,13 @@
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K12" s="2">
         <v>2</v>
@@ -1524,18 +1419,18 @@
         <v>0</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -1543,23 +1438,23 @@
       <c r="D13" s="2">
         <v>2</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>88</v>
+      <c r="E13" s="2">
+        <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K13" s="2">
         <v>2</v>
@@ -1568,18 +1463,18 @@
         <v>0</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C14" s="2">
         <v>4</v>
@@ -1587,8 +1482,8 @@
       <c r="D14" s="2">
         <v>18</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>161</v>
+      <c r="E14" s="2">
+        <v>9</v>
       </c>
       <c r="F14" s="2">
         <v>9</v>
@@ -1600,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J14" s="2">
         <v>0</v>
@@ -1612,18 +1507,18 @@
         <v>0</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C15" s="2">
         <v>10</v>
@@ -1631,8 +1526,8 @@
       <c r="D15" s="2">
         <v>101</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>121</v>
+      <c r="E15" s="2">
+        <v>58</v>
       </c>
       <c r="F15" s="2">
         <v>25.25</v>
@@ -1659,15 +1554,15 @@
         <v>-25.41</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2">
         <v>5</v>
@@ -1703,15 +1598,15 @@
         <v>-24.99</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C17" s="2">
         <v>15</v>
@@ -1719,8 +1614,8 @@
       <c r="D17" s="2">
         <v>303</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>130</v>
+      <c r="E17" s="2">
+        <v>76</v>
       </c>
       <c r="F17" s="2">
         <v>33.659999999999997</v>
@@ -1747,15 +1642,15 @@
         <v>-35.33</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C18" s="2">
         <v>9</v>
@@ -1791,15 +1686,15 @@
         <v>-20.99</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C19" s="2">
         <v>8</v>
@@ -1835,15 +1730,15 @@
         <v>-101.49</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C20" s="2">
         <v>6</v>
@@ -1851,8 +1746,8 @@
       <c r="D20" s="2">
         <v>25</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>15</v>
+      <c r="E20" s="2">
+        <v>8</v>
       </c>
       <c r="F20" s="2">
         <v>12.5</v>
@@ -1861,13 +1756,13 @@
         <v>0</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K20" s="2">
         <v>3</v>
@@ -1876,18 +1771,18 @@
         <v>0</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C21" s="2">
         <v>29</v>
@@ -1895,8 +1790,8 @@
       <c r="D21" s="2">
         <v>707</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>81</v>
+      <c r="E21" s="2">
+        <v>100</v>
       </c>
       <c r="F21" s="2">
         <v>41.58</v>
@@ -1923,15 +1818,15 @@
         <v>0.08</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="C22" s="2">
         <v>5</v>
@@ -1967,30 +1862,30 @@
         <v>13.16</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="C23" s="2">
         <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H23" s="2">
         <v>3</v>
@@ -2008,33 +1903,33 @@
         <v>0</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H24" s="2">
         <v>1</v>
@@ -2052,18 +1947,18 @@
         <v>0</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -2071,23 +1966,23 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>73</v>
+      <c r="E25" s="2">
+        <v>1</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G25" s="2">
         <v>0</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K25" s="2">
         <v>0</v>
@@ -2096,18 +1991,18 @@
         <v>0</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="C26" s="2">
         <v>13</v>
@@ -2128,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J26" s="2">
         <v>0</v>
@@ -2140,18 +2035,18 @@
         <v>0</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="C27" s="2">
         <v>3</v>
@@ -2169,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K27" s="2">
         <v>2</v>
@@ -2184,18 +2079,18 @@
         <v>0</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="C28" s="2">
         <v>6</v>
@@ -2216,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
@@ -2228,18 +2123,18 @@
         <v>0</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="C29" s="2">
         <v>3</v>
@@ -2260,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J29" s="2">
         <v>0</v>
@@ -2272,33 +2167,33 @@
         <v>0</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="C30" s="2">
         <v>2</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H30" s="2">
         <v>1</v>
@@ -2316,16 +2211,16 @@
         <v>0</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N30" s="2"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -2343,13 +2238,13 @@
         <v>0</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K31" s="2">
         <v>0</v>
@@ -2358,16 +2253,16 @@
         <v>0</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N31" s="2"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="C32" s="2">
         <v>3</v>
@@ -2388,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
@@ -2400,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N32" s="2"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C33" s="2">
         <v>10</v>
@@ -2445,15 +2340,15 @@
         <v>-6.84</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C34" s="2">
         <v>6</v>
@@ -2489,15 +2384,15 @@
         <v>-18.66</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C35" s="2">
         <v>20</v>
@@ -2533,15 +2428,15 @@
         <v>17.829999999999998</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C36" s="2">
         <v>10</v>
@@ -2549,8 +2444,8 @@
       <c r="D36" s="2">
         <v>115</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>42</v>
+      <c r="E36" s="2">
+        <v>39</v>
       </c>
       <c r="F36" s="2">
         <v>23</v>
@@ -2577,15 +2472,15 @@
         <v>-41.24</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C37" s="2">
         <v>42</v>
@@ -2593,8 +2488,8 @@
       <c r="D37" s="2">
         <v>634</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>86</v>
+      <c r="E37" s="2">
+        <v>59</v>
       </c>
       <c r="F37" s="2">
         <v>24.38</v>
@@ -2621,15 +2516,15 @@
         <v>6.38</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C38" s="2">
         <v>15</v>
@@ -2665,15 +2560,15 @@
         <v>-69.989999999999995</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C39" s="2">
         <v>24</v>
@@ -2681,8 +2576,8 @@
       <c r="D39" s="2">
         <v>423</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>153</v>
+      <c r="E39" s="2">
+        <v>68</v>
       </c>
       <c r="F39" s="2">
         <v>35.25</v>
@@ -2709,15 +2604,15 @@
         <v>10.25</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C40" s="2">
         <v>11</v>
@@ -2735,13 +2630,13 @@
         <v>0</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K40" s="2">
         <v>6</v>
@@ -2750,18 +2645,18 @@
         <v>0</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C41" s="2">
         <v>25</v>
@@ -2779,13 +2674,13 @@
         <v>1</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K41" s="2">
         <v>3</v>
@@ -2794,18 +2689,18 @@
         <v>0</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C42" s="2">
         <v>38</v>
@@ -2813,8 +2708,8 @@
       <c r="D42" s="2">
         <v>1156</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>139</v>
+      <c r="E42" s="2">
+        <v>84</v>
       </c>
       <c r="F42" s="2">
         <v>39.86</v>
@@ -2826,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J42" s="2">
         <v>0</v>
@@ -2838,18 +2733,18 @@
         <v>0</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C43" s="2">
         <v>7</v>
@@ -2885,15 +2780,15 @@
         <v>-28.66</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C44" s="2">
         <v>13</v>
@@ -2929,15 +2824,15 @@
         <v>-40.79</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C45" s="2">
         <v>12</v>
@@ -2958,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J45" s="2">
         <v>0</v>
@@ -2970,18 +2865,18 @@
         <v>0</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C46" s="2">
         <v>6</v>
@@ -2989,8 +2884,8 @@
       <c r="D46" s="2">
         <v>97</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>175</v>
+      <c r="E46" s="2">
+        <v>64</v>
       </c>
       <c r="F46" s="2">
         <v>32.33</v>
@@ -2999,13 +2894,13 @@
         <v>0</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K46" s="2">
         <v>3</v>
@@ -3014,18 +2909,18 @@
         <v>0</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C47" s="2">
         <v>3</v>
@@ -3043,13 +2938,13 @@
         <v>0</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K47" s="2">
         <v>0</v>
@@ -3058,16 +2953,16 @@
         <v>0</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N47" s="2"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C48" s="2">
         <v>6</v>
@@ -3075,8 +2970,8 @@
       <c r="D48" s="2">
         <v>51</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>43</v>
+      <c r="E48" s="2">
+        <v>25</v>
       </c>
       <c r="F48" s="2">
         <v>17</v>
@@ -3103,15 +2998,15 @@
         <v>-12.66</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C49" s="2">
         <v>2</v>
@@ -3129,13 +3024,13 @@
         <v>0</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K49" s="2">
         <v>0</v>
@@ -3144,18 +3039,18 @@
         <v>0</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -3176,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J50" s="2">
         <v>0</v>
@@ -3188,18 +3083,18 @@
         <v>0</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2">
         <v>21</v>
@@ -3207,8 +3102,8 @@
       <c r="D51" s="2">
         <v>66</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>32</v>
+      <c r="E51" s="2">
+        <v>17</v>
       </c>
       <c r="F51" s="2">
         <v>9.42</v>
@@ -3235,15 +3130,15 @@
         <v>-26.32</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2">
         <v>27</v>
@@ -3251,8 +3146,8 @@
       <c r="D52" s="2">
         <v>305</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>83</v>
+      <c r="E52" s="2">
+        <v>48</v>
       </c>
       <c r="F52" s="2">
         <v>19.059999999999999</v>
@@ -3279,15 +3174,15 @@
         <v>-23.43</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2">
         <v>51</v>
@@ -3323,15 +3218,15 @@
         <v>-16.09</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C54" s="2">
         <v>38</v>
@@ -3349,13 +3244,13 @@
         <v>0</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K54" s="2">
         <v>22</v>
@@ -3364,18 +3259,18 @@
         <v>0</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C55" s="2">
         <v>40</v>
@@ -3396,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J55" s="2">
         <v>0</v>
@@ -3408,18 +3303,18 @@
         <v>0</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C56" s="2">
         <v>9</v>
@@ -3440,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J56" s="2">
         <v>0</v>
@@ -3452,18 +3347,18 @@
         <v>0</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C57" s="2">
         <v>26</v>
@@ -3502,31 +3397,31 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J58" s="2">
         <v>0</v>
@@ -3538,18 +3433,18 @@
         <v>0</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C59" s="2">
         <v>55</v>
@@ -3557,8 +3452,8 @@
       <c r="D59" s="2">
         <v>536</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>86</v>
+      <c r="E59" s="2">
+        <v>59</v>
       </c>
       <c r="F59" s="2">
         <v>19.14</v>
@@ -3585,15 +3480,15 @@
         <v>-20.71</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C60" s="2">
         <v>50</v>
@@ -3601,8 +3496,8 @@
       <c r="D60" s="2">
         <v>577</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>148</v>
+      <c r="E60" s="2">
+        <v>37</v>
       </c>
       <c r="F60" s="2">
         <v>19.23</v>
@@ -3629,15 +3524,15 @@
         <v>-37.26</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C61" s="2">
         <v>53</v>
@@ -3658,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J61" s="2">
         <v>0</v>
@@ -3670,18 +3565,18 @@
         <v>0</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C62" s="2">
         <v>4</v>
@@ -3717,15 +3612,15 @@
         <v>-67.989999999999995</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2">
         <v>16</v>
@@ -3761,15 +3656,15 @@
         <v>-32.46</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C64" s="2">
         <v>12</v>
@@ -3777,8 +3672,8 @@
       <c r="D64" s="2">
         <v>22</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>15</v>
+      <c r="E64" s="2">
+        <v>8</v>
       </c>
       <c r="F64" s="2">
         <v>5.5</v>
@@ -3805,36 +3700,36 @@
         <v>-51.49</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J65" s="2">
         <v>0</v>
@@ -3846,18 +3741,18 @@
         <v>0</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C66" s="2">
         <v>71</v>
@@ -3865,8 +3760,8 @@
       <c r="D66" s="2">
         <v>25</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>36</v>
+      <c r="E66" s="2">
+        <v>10</v>
       </c>
       <c r="F66" s="2">
         <v>6.25</v>
@@ -3893,15 +3788,15 @@
         <v>-17.87</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C67" s="2">
         <v>59</v>
@@ -3909,8 +3804,8 @@
       <c r="D67" s="2">
         <v>883</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>54</v>
+      <c r="E67" s="2">
+        <v>63</v>
       </c>
       <c r="F67" s="2">
         <v>25.22</v>
@@ -3937,15 +3832,15 @@
         <v>-7.53</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C68" s="2">
         <v>41</v>
@@ -3981,15 +3876,15 @@
         <v>-14.61</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C69" s="2">
         <v>18</v>
@@ -4025,15 +3920,15 @@
         <v>-16.46</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C70" s="2">
         <v>39</v>
@@ -4069,15 +3964,15 @@
         <v>-7.27</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C71" s="2">
         <v>65</v>
@@ -4085,8 +3980,8 @@
       <c r="D71" s="2">
         <v>1502</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>102</v>
+      <c r="E71" s="2">
+        <v>95</v>
       </c>
       <c r="F71" s="2">
         <v>30.04</v>
@@ -4113,15 +4008,15 @@
         <v>-5.95</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C72" s="2">
         <v>11</v>
@@ -4129,8 +4024,8 @@
       <c r="D72" s="2">
         <v>26</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>40</v>
+      <c r="E72" s="2">
+        <v>13</v>
       </c>
       <c r="F72" s="2">
         <v>8.66</v>
@@ -4157,15 +4052,15 @@
         <v>-29.53</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C73" s="2">
         <v>70</v>
@@ -4173,8 +4068,8 @@
       <c r="D73" s="2">
         <v>1173</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>139</v>
+      <c r="E73" s="2">
+        <v>84</v>
       </c>
       <c r="F73" s="2">
         <v>24.43</v>
@@ -4201,15 +4096,15 @@
         <v>-52.31</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C74" s="2">
         <v>8</v>
@@ -4245,36 +4140,36 @@
         <v>-22.73</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C75" s="2">
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H75" s="2">
         <v>0</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J75" s="2">
         <v>0</v>
@@ -4286,18 +4181,18 @@
         <v>0</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C76" s="2">
         <v>67</v>
@@ -4333,15 +4228,15 @@
         <v>-2.72</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C77" s="2">
         <v>36</v>
@@ -4349,8 +4244,8 @@
       <c r="D77" s="2">
         <v>247</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>61</v>
+      <c r="E77" s="2">
+        <v>33</v>
       </c>
       <c r="F77" s="2">
         <v>13.72</v>
@@ -4377,15 +4272,15 @@
         <v>-24.75</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C78" s="2">
         <v>63</v>
@@ -4393,8 +4288,8 @@
       <c r="D78" s="2">
         <v>1377</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>101</v>
+      <c r="E78" s="2">
+        <v>75</v>
       </c>
       <c r="F78" s="2">
         <v>25.5</v>
@@ -4421,15 +4316,15 @@
         <v>-9.86</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C79" s="2">
         <v>40</v>
@@ -4437,8 +4332,8 @@
       <c r="D79" s="2">
         <v>527</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>98</v>
+      <c r="E79" s="2">
+        <v>54</v>
       </c>
       <c r="F79" s="2">
         <v>18.170000000000002</v>
@@ -4465,15 +4360,15 @@
         <v>-108.82</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C80" s="2">
         <v>5</v>
@@ -4481,8 +4376,8 @@
       <c r="D80" s="2">
         <v>12</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>36</v>
+      <c r="E80" s="2">
+        <v>10</v>
       </c>
       <c r="F80" s="2">
         <v>6</v>
@@ -4512,10 +4407,10 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C81" s="2">
         <v>11</v>
@@ -4523,8 +4418,8 @@
       <c r="D81" s="2">
         <v>53</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>60</v>
+      <c r="E81" s="2">
+        <v>20</v>
       </c>
       <c r="F81" s="2">
         <v>26.5</v>
@@ -4554,10 +4449,10 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C82" s="2">
         <v>13</v>
@@ -4565,8 +4460,8 @@
       <c r="D82" s="2">
         <v>127</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>98</v>
+      <c r="E82" s="2">
+        <v>54</v>
       </c>
       <c r="F82" s="2">
         <v>25.4</v>
@@ -4593,36 +4488,36 @@
         <v>-7.67</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H83" s="2">
         <v>0</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J83" s="2">
         <v>0</v>
@@ -4634,18 +4529,18 @@
         <v>0</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C84" s="2">
         <v>60</v>
@@ -4681,15 +4576,15 @@
         <v>-22.31</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C85" s="2">
         <v>24</v>
@@ -4725,15 +4620,15 @@
         <v>-21.02</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C86" s="2">
         <v>45</v>
@@ -4741,8 +4636,8 @@
       <c r="D86" s="2">
         <v>935</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>76</v>
+      <c r="E86" s="2">
+        <v>107</v>
       </c>
       <c r="F86" s="2">
         <v>24.6</v>
@@ -4772,10 +4667,10 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C87" s="2">
         <v>21</v>
@@ -4783,8 +4678,8 @@
       <c r="D87" s="2">
         <v>614</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>186</v>
+      <c r="E87" s="2">
+        <v>91</v>
       </c>
       <c r="F87" s="2">
         <v>32.31</v>
@@ -4793,13 +4688,13 @@
         <v>0</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K87" s="2">
         <v>10</v>
@@ -4808,16 +4703,16 @@
         <v>0</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N87" s="2"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C88" s="2">
         <v>127</v>
@@ -4853,15 +4748,15 @@
         <v>-11.72</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C89" s="2">
         <v>96</v>
@@ -4869,8 +4764,8 @@
       <c r="D89" s="2">
         <v>1866</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>59</v>
+      <c r="E89" s="2">
+        <v>124</v>
       </c>
       <c r="F89" s="2">
         <v>28.27</v>
@@ -4897,15 +4792,15 @@
         <v>-1.35</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C90" s="2">
         <v>107</v>
@@ -4941,15 +4836,15 @@
         <v>3.45</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C91" s="2">
         <v>14</v>
@@ -4957,8 +4852,8 @@
       <c r="D91" s="2">
         <v>51</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>62</v>
+      <c r="E91" s="2">
+        <v>15</v>
       </c>
       <c r="F91" s="2">
         <v>10.199999999999999</v>
@@ -4985,15 +4880,15 @@
         <v>-24.22</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C92" s="2">
         <v>95</v>
@@ -5029,15 +4924,15 @@
         <v>-18.239999999999998</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C93" s="2">
         <v>137</v>
@@ -5073,15 +4968,15 @@
         <v>-4.9000000000000004</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C94" s="2">
         <v>118</v>
@@ -5117,15 +5012,15 @@
         <v>-34.78</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="C95" s="2">
         <v>20</v>
@@ -5161,15 +5056,15 @@
         <v>-45.62</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="C96" s="2">
         <v>50</v>
@@ -5190,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J96" s="2">
         <v>0</v>
@@ -5202,18 +5097,18 @@
         <v>0</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C97" s="2">
         <v>3</v>
@@ -5249,15 +5144,15 @@
         <v>-96.66</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C98" s="2">
         <v>11</v>
@@ -5265,8 +5160,8 @@
       <c r="D98" s="2">
         <v>24</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>82</v>
+      <c r="E98" s="2">
+        <v>12</v>
       </c>
       <c r="F98" s="2">
         <v>8</v>
@@ -5293,15 +5188,15 @@
         <v>-35.49</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C99" s="2">
         <v>150</v>
@@ -5337,15 +5232,15 @@
         <v>-9.08</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C100" s="2">
         <v>58</v>
@@ -5353,8 +5248,8 @@
       <c r="D100" s="2">
         <v>515</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>49</v>
+      <c r="E100" s="2">
+        <v>66</v>
       </c>
       <c r="F100" s="2">
         <v>19.8</v>
@@ -5381,15 +5276,15 @@
         <v>-10.71</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C101" s="2">
         <v>93</v>
@@ -5425,15 +5320,15 @@
         <v>-9.39</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C102" s="2">
         <v>72</v>
@@ -5441,8 +5336,8 @@
       <c r="D102" s="2">
         <v>1115</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>54</v>
+      <c r="E102" s="2">
+        <v>63</v>
       </c>
       <c r="F102" s="2">
         <v>25.34</v>
@@ -5469,15 +5364,15 @@
         <v>-12.88</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C103" s="2">
         <v>14</v>
@@ -5513,12 +5408,12 @@
         <v>-31.52</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>14</v>
@@ -5529,8 +5424,8 @@
       <c r="D104" s="2">
         <v>210</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>43</v>
+      <c r="E104" s="2">
+        <v>25</v>
       </c>
       <c r="F104" s="2">
         <v>19.09</v>
@@ -5557,15 +5452,15 @@
         <v>-16.54</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C105" s="2">
         <v>46</v>
@@ -5573,8 +5468,8 @@
       <c r="D105" s="2">
         <v>259</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>56</v>
+      <c r="E105" s="2">
+        <v>47</v>
       </c>
       <c r="F105" s="2">
         <v>12.33</v>
@@ -5601,36 +5496,36 @@
         <v>-15.23</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C106" s="2">
         <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H106" s="2">
         <v>0</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J106" s="2">
         <v>0</v>
@@ -5642,18 +5537,18 @@
         <v>0</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C107" s="2">
         <v>106</v>
@@ -5661,8 +5556,8 @@
       <c r="D107" s="2">
         <v>249</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>27</v>
+      <c r="E107" s="2">
+        <v>36</v>
       </c>
       <c r="F107" s="2">
         <v>9.2200000000000006</v>
@@ -5689,15 +5584,15 @@
         <v>-14.1</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C108" s="2">
         <v>127</v>
@@ -5705,8 +5600,8 @@
       <c r="D108" s="2">
         <v>2484</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>34</v>
+      <c r="E108" s="2">
+        <v>88</v>
       </c>
       <c r="F108" s="2">
         <v>29.22</v>
@@ -5733,15 +5628,15 @@
         <v>6.21</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C109" s="2">
         <v>134</v>
@@ -5777,15 +5672,15 @@
         <v>-10.47</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C110" s="2">
         <v>71</v>
@@ -5793,8 +5688,8 @@
       <c r="D110" s="2">
         <v>793</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>49</v>
+      <c r="E110" s="2">
+        <v>66</v>
       </c>
       <c r="F110" s="2">
         <v>19.82</v>
@@ -5821,15 +5716,15 @@
         <v>-9.36</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C111" s="2">
         <v>42</v>
@@ -5865,15 +5760,15 @@
         <v>-1.92</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="C112" s="2">
         <v>212</v>
@@ -5909,15 +5804,15 @@
         <v>-16.489999999999998</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C113" s="2">
         <v>240</v>
@@ -5925,8 +5820,8 @@
       <c r="D113" s="2">
         <v>2959</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>23</v>
+      <c r="E113" s="2">
+        <v>62</v>
       </c>
       <c r="F113" s="2">
         <v>27.39</v>
@@ -5953,15 +5848,15 @@
         <v>-3</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C114" s="2">
         <v>162</v>
@@ -6000,10 +5895,10 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C115" s="2">
         <v>222</v>
@@ -6011,8 +5906,8 @@
       <c r="D115" s="2">
         <v>6769</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>137</v>
+      <c r="E115" s="2">
+        <v>106</v>
       </c>
       <c r="F115" s="2">
         <v>35.25</v>
